--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxDataLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxDataLog.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D3C29B-14F4-412A-9E45-666663C8548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -383,7 +394,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -749,11 +760,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="4"/>
-    <cellStyle name="一般 2 4" xfId="5"/>
-    <cellStyle name="一般_CopyBook" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -844,6 +855,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -879,6 +907,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1054,25 +1099,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="20" customWidth="1"/>
     <col min="3" max="3" width="35" style="25" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="32" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="11"/>
+    <col min="4" max="4" width="14.08984375" style="32" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1132,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="12" t="s">
@@ -1100,7 +1145,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1158,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1169,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="45" t="s">
         <v>36</v>
       </c>
@@ -1137,7 +1182,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
@@ -1176,7 +1221,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="19" customFormat="1">
+    <row r="9" spans="1:7" s="19" customFormat="1" ht="16">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1303,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="16.2">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1452,7 +1497,7 @@
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:7" ht="31.2">
+    <row r="23" spans="1:7" ht="31">
       <c r="A23" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1503,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1511,10 +1556,10 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="99.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxDataLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxDataLog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D3C29B-14F4-412A-9E45-666663C8548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD991D79-D492-4F7C-B2FB-A4FF9ECB0545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -389,6 +389,14 @@
   <si>
     <t>交易代號</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTranNoFirst</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate asc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1102,22 +1110,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="20" customWidth="1"/>
     <col min="3" max="3" width="35" style="25" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="32" customWidth="1"/>
-    <col min="5" max="6" width="5.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="11"/>
+    <col min="4" max="4" width="14.109375" style="32" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
+    <row r="1" spans="1:7">
       <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1140,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="16">
+    <row r="2" spans="1:7">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="12" t="s">
@@ -1145,7 +1153,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="16">
+    <row r="3" spans="1:7">
       <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1166,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="16">
+    <row r="4" spans="1:7">
       <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1177,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="16">
+    <row r="5" spans="1:7">
       <c r="A5" s="45" t="s">
         <v>36</v>
       </c>
@@ -1182,7 +1190,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="16">
+    <row r="6" spans="1:7">
       <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1229,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" ht="16">
+    <row r="9" spans="1:7" s="19" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1311,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7" ht="16.2">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1497,7 +1505,7 @@
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:7" ht="31">
+    <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1549,17 +1557,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="25.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="99.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1696,6 +1704,17 @@
         <v>80</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
